--- a/Firefly.xlsx
+++ b/Firefly.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marthadrake/Desktop/R_course/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marthadrake/R_course_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD1840-9518-BA43-A788-FD87E921DD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6274822-35C2-804C-A5C9-C4BC5EA288CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13300" yWindow="1960" windowWidth="15460" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="149">
   <si>
     <t>Specimen_num</t>
   </si>
@@ -480,12 +480,6 @@
   </si>
   <si>
     <t>Balao Chico</t>
-  </si>
-  <si>
-    <t>Average_length</t>
-  </si>
-  <si>
-    <t>Average_width</t>
   </si>
 </sst>
 </file>
@@ -846,9 +840,9 @@
   </sheetPr>
   <dimension ref="A1:AI997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -918,12 +912,8 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -973,13 +963,6 @@
       <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T2">
-        <v>10</v>
-      </c>
-      <c r="U2">
-        <f>T2/2</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:35" ht="15.75" customHeight="1">
       <c r="D3" s="2" t="s">
@@ -1015,13 +998,6 @@
       <c r="S3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U47" si="0">T3/2</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:35" ht="15.75" customHeight="1">
       <c r="D4" s="2" t="s">
@@ -1057,13 +1033,6 @@
       <c r="S4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T4">
-        <v>11</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
     </row>
     <row r="5" spans="1:35" ht="15.75" customHeight="1">
       <c r="D5" s="2" t="s">
@@ -1099,13 +1068,6 @@
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="6" spans="1:35" ht="15.75" customHeight="1">
       <c r="D6" s="2" t="s">
@@ -1141,13 +1103,6 @@
       <c r="S6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T6">
-        <v>10</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:35" ht="15.75" customHeight="1">
       <c r="D7" s="2" t="s">
@@ -1183,13 +1138,6 @@
       <c r="S7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
     </row>
     <row r="8" spans="1:35" ht="15.75" customHeight="1">
       <c r="D8" s="2" t="s">
@@ -1225,13 +1173,6 @@
       <c r="S8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:35" ht="15.75" customHeight="1">
       <c r="D9" s="2" t="s">
@@ -1267,13 +1208,6 @@
       <c r="S9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T9">
-        <v>8</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="10" spans="1:35" ht="15.75" customHeight="1">
       <c r="D10" s="2" t="s">
@@ -1309,13 +1243,6 @@
       <c r="S10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T10">
-        <v>11</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
     </row>
     <row r="11" spans="1:35" ht="15.75" customHeight="1">
       <c r="D11" s="2" t="s">
@@ -1351,13 +1278,6 @@
       <c r="S11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T11">
-        <v>13</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
     </row>
     <row r="12" spans="1:35" ht="15.75" customHeight="1">
       <c r="D12" s="2" t="s">
@@ -1393,13 +1313,6 @@
       <c r="S12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:35" ht="15.75" customHeight="1">
       <c r="D13" s="2" t="s">
@@ -1435,13 +1348,6 @@
       <c r="S13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T13">
-        <v>7</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
     </row>
     <row r="14" spans="1:35" ht="15.75" customHeight="1">
       <c r="D14" s="2" t="s">
@@ -1476,13 +1382,6 @@
       </c>
       <c r="S14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="T14">
-        <v>14</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="15.75" customHeight="1">
@@ -1517,13 +1416,7 @@
       <c r="S15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T15" s="10">
-        <v>15</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
+      <c r="T15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
@@ -1573,15 +1466,8 @@
       <c r="S16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T16">
-        <v>4</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="4:20" ht="15.75" customHeight="1">
       <c r="D17" s="2" t="s">
         <v>69</v>
       </c>
@@ -1615,15 +1501,8 @@
       <c r="S17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="18" spans="4:20" ht="15.75" customHeight="1">
       <c r="D18" s="2" t="s">
         <v>69</v>
       </c>
@@ -1657,15 +1536,8 @@
       <c r="S18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T18">
-        <v>4</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="19" spans="4:20" ht="15.75" customHeight="1">
       <c r="D19" s="2" t="s">
         <v>69</v>
       </c>
@@ -1699,15 +1571,8 @@
       <c r="S19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T19">
-        <v>6</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="20" spans="4:20" ht="15.75" customHeight="1">
       <c r="D20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1741,15 +1606,8 @@
       <c r="S20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T20">
-        <v>13</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="4:20" ht="15.75" customHeight="1">
       <c r="D21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1783,15 +1641,9 @@
       <c r="S21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="4:21" ht="15.75" customHeight="1">
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="4:20" ht="15.75" customHeight="1">
       <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
@@ -1825,15 +1677,8 @@
       <c r="S22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T22">
-        <v>11</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="23" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="23" spans="4:20" ht="15.75" customHeight="1">
       <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
@@ -1867,15 +1712,8 @@
       <c r="S23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T23">
-        <v>6</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="4:20" ht="15.75" customHeight="1">
       <c r="D24" s="2" t="s">
         <v>65</v>
       </c>
@@ -1909,15 +1747,8 @@
       <c r="S24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T24">
-        <v>5</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="4:20" ht="15.75" customHeight="1">
       <c r="D25" s="2" t="s">
         <v>65</v>
       </c>
@@ -1951,15 +1782,8 @@
       <c r="S25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T25">
-        <v>13</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="26" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="26" spans="4:20" ht="15.75" customHeight="1">
       <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
@@ -1993,15 +1817,8 @@
       <c r="S26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="4:20" ht="15.75" customHeight="1">
       <c r="D27" s="2" t="s">
         <v>65</v>
       </c>
@@ -2035,15 +1852,8 @@
       <c r="S27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T27">
-        <v>12</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="4:20" ht="15.75" customHeight="1">
       <c r="D28" s="2" t="s">
         <v>65</v>
       </c>
@@ -2077,15 +1887,8 @@
       <c r="S28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T28">
-        <v>6</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="4:20" ht="15.75" customHeight="1">
       <c r="D29" s="2" t="s">
         <v>65</v>
       </c>
@@ -2119,15 +1922,8 @@
       <c r="S29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="30" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="4:20" ht="15.75" customHeight="1">
       <c r="D30" s="2" t="s">
         <v>65</v>
       </c>
@@ -2161,15 +1957,8 @@
       <c r="S30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="4:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="4:20" ht="15.75" customHeight="1">
       <c r="D31" s="2" t="s">
         <v>65</v>
       </c>
@@ -2203,15 +1992,8 @@
       <c r="S31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T31">
-        <v>13</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="32" spans="4:21" ht="13">
+    </row>
+    <row r="32" spans="4:20" ht="13">
       <c r="D32" s="2" t="s">
         <v>65</v>
       </c>
@@ -2244,13 +2026,6 @@
       </c>
       <c r="S32" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="T32">
-        <v>13</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="13">
@@ -2287,13 +2062,7 @@
       <c r="S33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T33" s="17">
-        <v>10</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="T33" s="17"/>
     </row>
     <row r="34" spans="1:35" ht="13">
       <c r="D34" s="2" t="s">
@@ -2329,13 +2098,7 @@
       <c r="S34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T34" s="17">
-        <v>7</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
+      <c r="T34" s="17"/>
     </row>
     <row r="35" spans="1:35" ht="13">
       <c r="D35" s="2" t="s">
@@ -2371,13 +2134,7 @@
       <c r="S35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T35" s="17">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="T35" s="17"/>
     </row>
     <row r="36" spans="1:35" ht="13">
       <c r="D36" s="2" t="s">
@@ -2413,13 +2170,7 @@
       <c r="S36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T36" s="17">
-        <v>11</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
+      <c r="T36" s="17"/>
     </row>
     <row r="37" spans="1:35" ht="13">
       <c r="D37" s="2" t="s">
@@ -2455,13 +2206,7 @@
       <c r="S37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T37" s="17">
-        <v>10</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="T37" s="17"/>
     </row>
     <row r="38" spans="1:35" ht="13">
       <c r="D38" s="2" t="s">
@@ -2497,13 +2242,7 @@
       <c r="S38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T38" s="17">
-        <v>4</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="T38" s="17"/>
     </row>
     <row r="39" spans="1:35" ht="13">
       <c r="D39" s="2" t="s">
@@ -2539,13 +2278,7 @@
       <c r="S39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T39" s="17">
-        <v>8</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="T39" s="17"/>
     </row>
     <row r="40" spans="1:35" ht="13">
       <c r="D40" s="2" t="s">
@@ -2581,13 +2314,7 @@
       <c r="S40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T40" s="17">
-        <v>1</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
+      <c r="T40" s="17"/>
     </row>
     <row r="41" spans="1:35" ht="13">
       <c r="D41" s="2" t="s">
@@ -2623,13 +2350,7 @@
       <c r="S41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T41" s="17">
-        <v>10</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="T41" s="17"/>
     </row>
     <row r="42" spans="1:35" ht="13">
       <c r="D42" s="2" t="s">
@@ -2665,13 +2386,7 @@
       <c r="S42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T42" s="17">
-        <v>8</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="T42" s="17"/>
     </row>
     <row r="43" spans="1:35" ht="13">
       <c r="A43" s="13"/>
@@ -2705,13 +2420,7 @@
       <c r="S43" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="T43" s="13">
-        <v>5</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
+      <c r="T43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
       <c r="X43" s="16" t="s">
@@ -2763,13 +2472,7 @@
       <c r="S44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T44" s="17">
-        <v>15</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
+      <c r="T44" s="17"/>
     </row>
     <row r="45" spans="1:35" ht="13">
       <c r="D45" s="2" t="s">
@@ -2805,13 +2508,7 @@
       <c r="S45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T45" s="17">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
+      <c r="T45" s="17"/>
     </row>
     <row r="46" spans="1:35" ht="13">
       <c r="D46" s="2" t="s">
@@ -2847,13 +2544,7 @@
       <c r="S46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T46" s="18">
-        <v>7</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
+      <c r="T46" s="18"/>
     </row>
     <row r="47" spans="1:35" ht="13">
       <c r="D47" s="2" t="s">
@@ -2889,13 +2580,7 @@
       <c r="S47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T47" s="17">
-        <v>8</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="T47" s="17"/>
     </row>
     <row r="48" spans="1:35" ht="13">
       <c r="N48" s="7"/>
